--- a/CORRELCAO_GE.xlsx
+++ b/CORRELCAO_GE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alyce\Documents\DOUTORADO UNESP\ORIENTADOS IC\Ana Clara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F227B42B-C5F1-45F6-BF16-0D1E570EBD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03397921-AFF0-4F32-88A7-23B039DF6F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BB18BC8-FA2F-4B82-A268-AB23FFE000E8}"/>
   </bookViews>
@@ -82,18 +82,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +104,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +422,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,9 +472,7 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2">
         <v>0.77</v>
       </c>
@@ -525,9 +517,7 @@
       <c r="B3">
         <v>0.65549999999999997</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3">
         <v>0.90259999999999996</v>
       </c>
@@ -572,9 +562,7 @@
       <c r="C4">
         <v>0.88570000000000004</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4">
         <v>0.90210000000000001</v>
       </c>
@@ -619,9 +607,7 @@
       <c r="D5">
         <v>0.88480000000000003</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5">
         <v>0.36130000000000001</v>
       </c>
@@ -666,9 +652,7 @@
       <c r="E6">
         <v>0.27050000000000002</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6">
         <v>0.82010000000000005</v>
       </c>
@@ -713,9 +697,7 @@
       <c r="F7">
         <v>0.61929999999999996</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7">
         <v>0.41389999999999999</v>
       </c>
@@ -760,9 +742,7 @@
       <c r="G8">
         <v>0.20799999999999999</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8">
         <v>-0.5897</v>
       </c>
@@ -807,9 +787,7 @@
       <c r="H9">
         <v>-0.39140000000000003</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9">
         <v>-0.3</v>
       </c>
@@ -854,9 +832,7 @@
       <c r="I10">
         <v>-0.1595</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10">
         <v>0.91279999999999994</v>
       </c>
@@ -901,9 +877,7 @@
       <c r="J11">
         <v>0.88080000000000003</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11">
         <v>0.9153</v>
       </c>
@@ -948,9 +922,7 @@
       <c r="K12">
         <v>0.8831</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
+      <c r="L12" s="1"/>
       <c r="M12">
         <v>6.5600000000000006E-2</v>
       </c>
@@ -995,9 +967,7 @@
       <c r="L13">
         <v>0.12</v>
       </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
+      <c r="M13" s="1"/>
       <c r="N13">
         <v>0.18809999999999999</v>
       </c>
@@ -1042,9 +1012,7 @@
       <c r="M14">
         <v>0.18459999999999999</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
+      <c r="N14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
